--- a/QTY Design/Protein info.xlsx
+++ b/QTY Design/Protein info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\Rhodopsins_QTY\QTY Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B461D043-85ED-4161-8E81-34EC27911CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAEEE9B-D700-4173-8B92-2430E2C64BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="6765" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>PDB id</t>
   </si>
@@ -142,13 +142,19 @@
 structure</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>pub. pending</t>
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>2JAF</t>
+  </si>
+  <si>
+    <t>7XJC</t>
+  </si>
+  <si>
+    <t>5W0P</t>
   </si>
 </sst>
 </file>
@@ -484,7 +490,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -534,7 +540,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -557,7 +563,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -580,7 +586,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -603,7 +609,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -626,7 +632,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -649,7 +655,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -672,7 +678,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -708,7 +714,7 @@
         <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -731,7 +737,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -767,7 +773,7 @@
         <v>25</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -790,7 +796,7 @@
         <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>

--- a/QTY Design/Protein info.xlsx
+++ b/QTY Design/Protein info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\Rhodopsins_QTY\QTY Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAEEE9B-D700-4173-8B92-2430E2C64BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FED9B5F-65FC-4D28-A98C-A2C9E812C5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="6765" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/QTY Design/Protein info.xlsx
+++ b/QTY Design/Protein info.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\Rhodopsins_QTY\QTY Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FED9B5F-65FC-4D28-A98C-A2C9E812C5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CB45F9-C28A-41D8-84E5-E740DEB1CEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>PDB id</t>
   </si>
@@ -102,19 +113,10 @@
     <t>halorhodopsin</t>
   </si>
   <si>
-    <t>BR</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
     <t>neuropsin</t>
   </si>
   <si>
     <t>encephalopsin/panopsin</t>
-  </si>
-  <si>
-    <t>Alt. abbr.</t>
   </si>
   <si>
     <t>OPN1MW</t>
@@ -155,6 +157,56 @@
   </si>
   <si>
     <t>5W0P</t>
+  </si>
+  <si>
+    <t>OPSG</t>
+  </si>
+  <si>
+    <t>OPSR</t>
+  </si>
+  <si>
+    <t>OPSB</t>
+  </si>
+  <si>
+    <t>OPSD</t>
+  </si>
+  <si>
+    <t>Abbr.</t>
+  </si>
+  <si>
+    <t>OPSX</t>
+  </si>
+  <si>
+    <t>BACR</t>
+  </si>
+  <si>
+    <t>BACH</t>
+  </si>
+  <si>
+    <t>*BR</t>
+  </si>
+  <si>
+    <t>*HR</t>
+  </si>
+  <si>
+    <t>Alt. abbr.
+(gene name or
+*my own abbr.)</t>
+  </si>
+  <si>
+    <t>Q8RUT8</t>
+  </si>
+  <si>
+    <t>channelrhodopsin 2</t>
+  </si>
+  <si>
+    <t>ChR2</t>
+  </si>
+  <si>
+    <t>*CR</t>
+  </si>
+  <si>
+    <t>8ZAN</t>
   </si>
 </sst>
 </file>
@@ -487,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -498,14 +550,15 @@
     <col min="1" max="1" width="5.1796875" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.7265625" style="2"/>
     <col min="3" max="3" width="33.54296875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="2"/>
+    <col min="4" max="4" width="13.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.81640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -514,19 +567,22 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -537,19 +593,22 @@
         <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -560,19 +619,22 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -583,19 +645,22 @@
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -606,19 +671,22 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -626,22 +694,25 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -655,16 +726,19 @@
         <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -672,22 +746,25 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -699,8 +776,9 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -708,22 +786,25 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -731,22 +812,25 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -758,8 +842,9 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -770,19 +855,22 @@
         <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>48</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -793,17 +881,46 @@
         <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QTY Design/Protein info.xlsx
+++ b/QTY Design/Protein info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\Rhodopsins_QTY\QTY Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CB45F9-C28A-41D8-84E5-E740DEB1CEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA1F04B-ADE9-4F79-BD17-2AE62F89E9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="6765" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
   <si>
     <t>PDB id</t>
   </si>
@@ -207,6 +207,37 @@
   </si>
   <si>
     <t>8ZAN</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Clinical significance
+/ applications</t>
+  </si>
+  <si>
+    <t>cone photoreceptor</t>
+  </si>
+  <si>
+    <t>color (G); 530nm</t>
+  </si>
+  <si>
+    <t>color (B); 4*0nm</t>
+  </si>
+  <si>
+    <t>CBD, BCM, COD5</t>
+  </si>
+  <si>
+    <t>color (R); 560nm</t>
+  </si>
+  <si>
+    <t>CBP, BCM</t>
+  </si>
+  <si>
+    <t>8IU2</t>
   </si>
 </sst>
 </file>
@@ -541,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -553,10 +584,13 @@
     <col min="4" max="4" width="13.6328125" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.81640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.7265625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="2"/>
+    <col min="7" max="7" width="22.1796875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.08984375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="27.1796875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -575,9 +609,15 @@
       <c r="F1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -601,9 +641,15 @@
       <c r="F2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -625,11 +671,17 @@
         <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -653,8 +705,12 @@
       <c r="F4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>

--- a/QTY Design/Protein info.xlsx
+++ b/QTY Design/Protein info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\Rhodopsins_QTY\QTY Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA1F04B-ADE9-4F79-BD17-2AE62F89E9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2E07DC-CE69-4DE0-87F2-D9754646A982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="6765" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>PDB id</t>
   </si>
@@ -225,9 +225,6 @@
     <t>color (G); 530nm</t>
   </si>
   <si>
-    <t>color (B); 4*0nm</t>
-  </si>
-  <si>
     <t>CBD, BCM, COD5</t>
   </si>
   <si>
@@ -238,6 +235,31 @@
   </si>
   <si>
     <t>8IU2</t>
+  </si>
+  <si>
+    <t>rod photoreceptor</t>
+  </si>
+  <si>
+    <t>low light intensity</t>
+  </si>
+  <si>
+    <t>color (B); 420nm</t>
+  </si>
+  <si>
+    <t>CBT</t>
+  </si>
+  <si>
+    <t>RP4, CSNBAD1</t>
+  </si>
+  <si>
+    <t>UVA light/blue light
+…</t>
+  </si>
+  <si>
+    <t>melanocytes, skin…</t>
+  </si>
+  <si>
+    <t>ipRGC</t>
   </si>
 </sst>
 </file>
@@ -572,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -585,7 +607,7 @@
     <col min="5" max="5" width="25.81640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.7265625" style="2" customWidth="1"/>
     <col min="7" max="7" width="22.1796875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.08984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.36328125" style="2" customWidth="1"/>
     <col min="9" max="9" width="27.1796875" style="2" customWidth="1"/>
     <col min="10" max="16384" width="8.7265625" style="2"/>
   </cols>
@@ -648,7 +670,7 @@
         <v>60</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -671,16 +693,16 @@
         <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -709,9 +731,11 @@
         <v>59</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -735,9 +759,15 @@
       <c r="F5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -761,8 +791,12 @@
       <c r="F6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -787,7 +821,9 @@
       <c r="F7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>

--- a/QTY Design/Protein info.xlsx
+++ b/QTY Design/Protein info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\Rhodopsins_QTY\QTY Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2E07DC-CE69-4DE0-87F2-D9754646A982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D37F46D-89D1-4089-86CA-922D56A96093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="6765" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>PDB id</t>
   </si>
@@ -128,9 +128,6 @@
     <t>OPN1SW</t>
   </si>
   <si>
-    <t>OPN2/RHO</t>
-  </si>
-  <si>
     <t>RPE retinal GPCR</t>
   </si>
   <si>
@@ -140,13 +137,6 @@
     <t>No.</t>
   </si>
   <si>
-    <t>Experimental
-structure</t>
-  </si>
-  <si>
-    <t>pub. pending</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -159,24 +149,9 @@
     <t>5W0P</t>
   </si>
   <si>
-    <t>OPSG</t>
-  </si>
-  <si>
-    <t>OPSR</t>
-  </si>
-  <si>
-    <t>OPSB</t>
-  </si>
-  <si>
-    <t>OPSD</t>
-  </si>
-  <si>
     <t>Abbr.</t>
   </si>
   <si>
-    <t>OPSX</t>
-  </si>
-  <si>
     <t>BACR</t>
   </si>
   <si>
@@ -187,11 +162,6 @@
   </si>
   <si>
     <t>*HR</t>
-  </si>
-  <si>
-    <t>Alt. abbr.
-(gene name or
-*my own abbr.)</t>
   </si>
   <si>
     <t>Q8RUT8</t>
@@ -260,6 +230,18 @@
   </si>
   <si>
     <t>ipRGC</t>
+  </si>
+  <si>
+    <t>OPN2</t>
+  </si>
+  <si>
+    <t>AKA</t>
+  </si>
+  <si>
+    <t>RHO</t>
+  </si>
+  <si>
+    <t>Exp</t>
   </si>
 </sst>
 </file>
@@ -595,7 +577,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -604,8 +586,8 @@
     <col min="2" max="2" width="8.7265625" style="2"/>
     <col min="3" max="3" width="33.54296875" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.6328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.81640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.1796875" style="2" customWidth="1"/>
     <col min="8" max="8" width="24.36328125" style="2" customWidth="1"/>
     <col min="9" max="9" width="27.1796875" style="2" customWidth="1"/>
@@ -614,7 +596,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -623,22 +605,22 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -655,22 +637,20 @@
         <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -687,22 +667,20 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -719,22 +697,20 @@
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -751,22 +727,22 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -785,17 +761,15 @@
       <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -815,14 +789,12 @@
       <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -843,11 +815,9 @@
       <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -878,16 +848,14 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -904,16 +872,14 @@
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -947,13 +913,13 @@
         <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -973,13 +939,13 @@
         <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -993,19 +959,19 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>

--- a/QTY Design/Protein info.xlsx
+++ b/QTY Design/Protein info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\Rhodopsins_QTY\QTY Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D37F46D-89D1-4089-86CA-922D56A96093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5884F050-3EEC-477F-BD8F-D938AA85417A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="6765" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
